--- a/result/actual_building.xlsx
+++ b/result/actual_building.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>commissioning</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>picture</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -481,42 +486,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>34999</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>г Хабаровск, Краснофлотский район, пересечение улиц Хорышева-Таймырская, д. 3</t>
+          <t>г Хабаровск, Лазо, д. Четырехквартирный дом по ГП №6 (1 этап строительства)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ООО ТЕХНОСИТИ</t>
+          <t>ООО СЗ ДА ДЕВЕЛОПМЕНТ</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Энергожилстрой</t>
+          <t>Да! Девелопмент</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2 758</t>
+          <t>706</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>IV кв. 2022</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/5f63e0ea-2cb6-45c0-bc25-cad96c9cada8</t>
         </is>
       </c>
     </row>
@@ -526,42 +536,47 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4679</t>
+          <t>34997</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>г Хабаровск, Краснофлотский район, пересечение улиц Хорышева-Таймырская, д. 2</t>
+          <t>г Хабаровск, Лазо, д. Четырехквартирный дом по ГП №4 (1 этап строительства)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ООО ТЕХНОСИТИ</t>
+          <t>ООО СЗ ДА ДЕВЕЛОПМЕНТ</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Энергожилстрой</t>
+          <t>Да! Девелопмент</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2 758</t>
+          <t>706</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>IV кв. 2023</t>
+          <t>IV кв. 2022</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/2cf2bd12-5498-47d8-aaba-bb42efb75476</t>
         </is>
       </c>
     </row>
@@ -571,42 +586,47 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4678</t>
+          <t>34994</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>г Хабаровск, Краснофлотский район, пересечение улиц Хорышева-Таймырская, д. 1</t>
+          <t>г Хабаровск, Лазо, д. Четырехквартирный дом по ГП №1 (1 этап строительства)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ООО ТЕХНОСИТИ</t>
+          <t>ООО СЗ ДА ДЕВЕЛОПМЕНТ</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Энергожилстрой</t>
+          <t>Да! Девелопмент</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2 789</t>
+          <t>706</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>III кв. 2022</t>
+          <t>IV кв. 2022</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/15b795ea-0219-4c68-bfe3-87348578a7e2</t>
         </is>
       </c>
     </row>
@@ -616,42 +636,47 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4681</t>
+          <t>34995</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>г Хабаровск, Краснофлотский район, пересечение улиц Хорышева-Таймырская, д. 4</t>
+          <t>г Хабаровск, Лазо, д. Пятиквартирный дом по ГП №2 (1 этап строительства)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ООО ТЕХНОСИТИ</t>
+          <t>ООО СЗ ДА ДЕВЕЛОПМЕНТ</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Энергожилстрой</t>
+          <t>Да! Девелопмент</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2 826</t>
+          <t>906</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>III кв. 2023</t>
+          <t>IV кв. 2022</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/a075a710-e720-49f0-bf4c-fe1fa4341501</t>
         </is>
       </c>
     </row>
@@ -661,42 +686,47 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>33712</t>
+          <t>34998</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>г Хабаровск, улица Морозова Павла Леонтьевича, д. 23</t>
+          <t>г Хабаровск, Лазо, д. Четырехквартирный дом по ГП №5 (1 этап строительства)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ООО СЗ РЕАЛ СТРОЙ</t>
+          <t>ООО СЗ ДА ДЕВЕЛОПМЕНТ</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Энергожилстрой</t>
+          <t>Да! Девелопмент</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>11 371</t>
+          <t>706</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>IV кв. 2023</t>
+          <t>IV кв. 2022</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/4973b007-5f2c-4165-9b10-721f5fa21e60</t>
         </is>
       </c>
     </row>
@@ -706,42 +736,47 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>22215</t>
+          <t>34996</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>г Хабаровск, Индустриальный район, улица Юности, д. 13</t>
+          <t>г Хабаровск, Лазо, д. Четырехквартирный дом по ГП №3 (1 этап строительства)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ООО ЭНКА ИНВЕСТ</t>
+          <t>ООО СЗ ДА ДЕВЕЛОПМЕНТ</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ЭНКА</t>
+          <t>Да! Девелопмент</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>5 021</t>
+          <t>706</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>III кв. 2023</t>
+          <t>IV кв. 2022</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/e311cbc1-8d4c-4d52-b5a4-c129c3f59a82</t>
         </is>
       </c>
     </row>
@@ -751,42 +786,47 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>22216</t>
+          <t>35001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>г Хабаровск, Индустриальный район, улица Юности, д. 17</t>
+          <t>г Хабаровск, Лазо, д. Четырехквартирный дом по ГП №8 (2 этап строительства)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ООО ЭНКА ИНВЕСТ</t>
+          <t>ООО СЗ ДА ДЕВЕЛОПМЕНТ</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ЭНКА</t>
+          <t>Да! Девелопмент</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>5 021</t>
+          <t>706</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>II кв. 2024</t>
+          <t>I кв. 2023</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/f5128a08-b1f0-430e-827a-01fb693c19fc</t>
         </is>
       </c>
     </row>
@@ -796,42 +836,47 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>22217</t>
+          <t>35000</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>г Хабаровск, Индустриальный район, улица Юности, д. 16</t>
+          <t>г Хабаровск, Лазо, д. Контрольно-пропускной пункт со встроенными административными помещениями по ГП № 7</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ООО ЭНКА ИНВЕСТ</t>
+          <t>ООО СЗ ДА ДЕВЕЛОПМЕНТ</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ЭНКА</t>
+          <t>Да! Девелопмент</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>4 971</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>II кв. 2023</t>
+          <t>IV кв. 2022</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/bba3c831-e242-47d4-ade6-3ccc6df2467e</t>
         </is>
       </c>
     </row>
@@ -841,42 +886,47 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>22214</t>
+          <t>35005</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>г Хабаровск, Индустриальный район, улица Юности, д. 12</t>
+          <t>г Хабаровск, Лазо, д. Четырехквартирный дом по ГП №12 (2 этап строительства)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ООО ЭНКА ИНВЕСТ</t>
+          <t>ООО СЗ ДА ДЕВЕЛОПМЕНТ</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ЭНКА</t>
+          <t>Да! Девелопмент</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>4 808</t>
+          <t>706</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>IV кв. 2022</t>
+          <t>I кв. 2023</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/d6ad0401-45dd-4d81-af8b-64133dedd804</t>
         </is>
       </c>
     </row>
@@ -886,42 +936,47 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>22218</t>
+          <t>35007</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>г Хабаровск, Индустриальный район, улица Юности, д. 15</t>
+          <t>г Хабаровск, Лазо, д. Четырехквартирный дом по ГП №14 (2 этап строительства)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ООО ЭНКА ИНВЕСТ</t>
+          <t>ООО СЗ ДА ДЕВЕЛОПМЕНТ</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ЭНКА</t>
+          <t>Да! Девелопмент</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>4 971</t>
+          <t>756</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>I кв. 2023</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/cd40b381-8bcc-4050-9f2a-cd5ec67782a8</t>
         </is>
       </c>
     </row>
@@ -931,42 +986,47 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>35755</t>
+          <t>28608</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>г Хабаровск, район Индустриальный</t>
+          <t>город Хабаровск, улица Запарина</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ООО СЗ - АКРАНЕС</t>
+          <t>ООО РЕГИОНЖИЛЬЕ</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>УИП города Хабаровска</t>
+          <t>Корфовский Каменный Карьер</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>162</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>8 184</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>III кв. 2022</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/410b0b57-0a50-4d44-9d06-3bba4bfe9248</t>
         </is>
       </c>
     </row>
@@ -976,42 +1036,47 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>35754</t>
+          <t>28609</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>г Хабаровск, район Индустриальный, ул Краснореченская, д. 223</t>
+          <t>город Хабаровск, улица Запарина</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ООО СЗ - АКРАНЕС</t>
+          <t>ООО РЕГИОНЖИЛЬЕ</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>УИП города Хабаровска</t>
+          <t>Корфовский Каменный Карьер</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>12 530</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>III кв. 2022</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/eb0061f7-95e3-4fef-b5b6-8f6762ee1daf</t>
         </is>
       </c>
     </row>
@@ -1021,42 +1086,47 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5360</t>
+          <t>33712</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>г Хабаровск, ул Совхозная, д. 35/1, блок-секция Ш2- 3 шт; У1 – 1 шт</t>
+          <t>г Хабаровск, улица Морозова Павла Леонтьевича, д. 23</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ООО ФЖС</t>
+          <t>ООО СЗ РЕАЛ СТРОЙ</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Фонд Жилищного строительства</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>260</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>6 492</t>
+          <t>11 371</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>II кв. 2022</t>
+          <t>IV кв. 2023</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/41294754-70c8-4eb4-8017-7a876ccca436</t>
         </is>
       </c>
     </row>
@@ -1066,42 +1136,47 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>42851</t>
+          <t>4692</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>г Хабаровск, Индустриальный район, блок-секция 1, 2</t>
+          <t>г Хабаровск, район Индустриальный, ул Панфиловцев, д. 1, блок-секция 1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ООО СЗ РП</t>
+          <t>ООО ЗАСТРОЙЩИК-ДВ</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Да! Девелопмент</t>
+          <t>Застройщик-ДВ</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>180</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>7 200</t>
+          <t>9 812</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>I кв. 2023</t>
+          <t>III кв. 2022</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/41c2b081-6115-4d5e-81fb-de8680190c1b</t>
         </is>
       </c>
     </row>
@@ -1111,42 +1186,47 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>42852</t>
+          <t>4694</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>г Хабаровск, Индустриальный район, блок-секция 3, 4, 5, 6</t>
+          <t>г Хабаровск, ул Панфиловцев, д. 3, блок-секция 3</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ООО СЗ РП</t>
+          <t>ООО ЗАСТРОЙЩИК-ДВ</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Да! Девелопмент</t>
+          <t>Застройщик-ДВ</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>32 065</t>
+          <t>1 098</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>IV кв. 2023</t>
+          <t>III кв. 2022</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/1af6ecdf-d86c-4397-bfa6-4033386ccdc2</t>
         </is>
       </c>
     </row>
@@ -1156,42 +1236,47 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>9256</t>
+          <t>4695</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>г Хабаровск, район Краснофлотский, д. №2</t>
+          <t>г Хабаровск, район Индустриальный, ул Панфиловцев, строение 4, блок-секция Подземная автостоянка</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ООО ТСМ</t>
+          <t>ООО ЗАСТРОЙЩИК-ДВ</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Терраса ЛОФТ</t>
+          <t>Застройщик-ДВ</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1 397</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>IV кв. 2021</t>
+          <t>III кв. 2022</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/d511b522-3909-4709-ad2a-a2c4c60b5436</t>
         </is>
       </c>
     </row>
@@ -1201,42 +1286,47 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>27779</t>
+          <t>4693</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>г Хабаровск, ул Фабричная</t>
+          <t>г Хабаровск, ул Панфиловцев, д. 2, блок-секция 2</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ООО АЗИЯ ТРЕСТ</t>
+          <t>ООО ЗАСТРОЙЩИК-ДВ</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Компания КЕТОМ</t>
+          <t>Застройщик-ДВ</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>6 877</t>
+          <t>3 946</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>I кв. 2022</t>
+          <t>III кв. 2022</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/68baa7c3-3a70-4601-905d-d5b518fde336</t>
         </is>
       </c>
     </row>
@@ -1246,27 +1336,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>42235</t>
+          <t>35755</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>г Хабаровск, ул Ленина, д. 47</t>
+          <t>г Хабаровск, район Индустриальный</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ООО СЗ УЮТ</t>
+          <t>ООО СЗ - АКРАНЕС</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Архстрой</t>
+          <t>УИП города Хабаровска</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1282,6 +1372,11 @@
       <c r="I19" t="inlineStr">
         <is>
           <t>III кв. 2022</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/f8cf07d5-9a81-4b64-bc13-f5ad387831a4</t>
         </is>
       </c>
     </row>
@@ -1291,42 +1386,47 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>40339</t>
+          <t>35754</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>г Хабаровск, район Кировский, ул Яшина</t>
+          <t>г Хабаровск, район Индустриальный, ул Краснореченская, д. 223</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ООО СЗ-КОНСТРУКТОР</t>
+          <t>ООО СЗ - АКРАНЕС</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Архстрой</t>
+          <t>УИП города Хабаровска</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>230</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>8 798</t>
+          <t>12 530</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>IV кв. 2023</t>
+          <t>III кв. 2022</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/2debf882-4d53-4d21-be61-9eb8bc2b8b78</t>
         </is>
       </c>
     </row>
@@ -1336,42 +1436,47 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>35574</t>
+          <t>42851</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>г Хабаровск, район Краснофлотский, ш Воронежское, д. 5</t>
+          <t>г Хабаровск, Индустриальный район, блок-секция 1, 2</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ООО СЗ ЖК СПОРТИВНЫЙ</t>
+          <t>ООО СЗ РП</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Ладный дом</t>
+          <t>Да! Девелопмент</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>124</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>5 638</t>
+          <t>7 200</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>IV кв. 2022</t>
+          <t>I кв. 2023</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/36df09bd-8d77-465e-8723-c739e437a9da</t>
         </is>
       </c>
     </row>
@@ -1381,42 +1486,47 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>28608</t>
+          <t>42852</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>город Хабаровск, улица Запарина</t>
+          <t>г Хабаровск, Индустриальный район, блок-секция 3, 4, 5, 6</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ООО РЕГИОНЖИЛЬЕ</t>
+          <t>ООО СЗ РП</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Корфовский Каменный Карьер</t>
+          <t>Да! Девелопмент</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>530</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>8 184</t>
+          <t>32 065</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>III кв. 2022</t>
+          <t>IV кв. 2023</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/af5f9d61-07c3-42b7-b140-e34376abd971</t>
         </is>
       </c>
     </row>
@@ -1426,42 +1536,47 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>28609</t>
+          <t>27779</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>город Хабаровск, улица Запарина</t>
+          <t>г Хабаровск, ул Фабричная</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ООО РЕГИОНЖИЛЬЕ</t>
+          <t>ООО АЗИЯ ТРЕСТ</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Корфовский Каменный Карьер</t>
+          <t>Компания КЕТОМ</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>116</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>6 877</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>III кв. 2022</t>
+          <t>I кв. 2022</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/bc09b2d7-5525-4159-9d03-c4bf8250e5e4</t>
         </is>
       </c>
     </row>
@@ -1471,42 +1586,47 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3333</t>
+          <t>42909</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>г Хабаровск, Центральный район, ул Ленина, д. 12,14</t>
+          <t>г Хабаровск, проезд Иртышский, д. 14</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ООО К-РИШУВИЛ</t>
+          <t>ООО СЗ БМК-СТРОЙ</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Керенг</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>139</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>20 690</t>
+          <t>5 989</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>IV кв. 2024</t>
+          <t>II кв. 2023</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/8cb87da0-9063-44b3-9957-03825120b37a</t>
         </is>
       </c>
     </row>
@@ -1516,42 +1636,47 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>42909</t>
+          <t>36846</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>г Хабаровск, проезд Иртышский, д. 14</t>
+          <t>г Хабаровск, район Центральный, ул Ким Ю Чена, строение 23/1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ООО СЗ БМК-СТРОЙ</t>
+          <t>ООО ИСК РЕАЛ СТРОЙ</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Керенг</t>
+          <t>Реал Строй</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>5 989</t>
+          <t>4 540</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>II кв. 2023</t>
+          <t>IV кв. 2023</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/24a11d85-5fc6-4955-b7eb-38cf0e3563f1</t>
         </is>
       </c>
     </row>
@@ -1561,42 +1686,47 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>36339</t>
+          <t>4418</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>г Хабаровск, район Кировский, ул Джамбула, д. 3</t>
+          <t>г Хабаровск, район Центральный, улица Ленинградская, д. 27, строение Гостиница</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ООО СЗ ТАЛАН-РЕГИОН-2</t>
+          <t>ООО ЛИДЕР</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Талан</t>
+          <t>БАСК</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>15 415</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>I кв. 2023</t>
+          <t>III кв. 2022</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/8d423c43-6233-4a67-b8db-9a9099bf4cba</t>
         </is>
       </c>
     </row>
@@ -1606,42 +1736,47 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>35427</t>
+          <t>34613</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>г Хабаровск, ул Заозерная, д. 16-18</t>
+          <t>г Хабаровск, Алексеевская</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ООО СМС АВТО</t>
+          <t>ООО СТРОЙМЕТАЛЛ Л</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Компания КЕТОМ</t>
+          <t>СтройМеталл</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>136</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>6 509</t>
+          <t>4 981</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>IV кв. 2022</t>
+          <t>IV кв. 2023</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/87e00901-9d57-4c1e-9af3-8245e73d5f3d</t>
         </is>
       </c>
     </row>
@@ -1651,42 +1786,47 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>7593</t>
+          <t>34612</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>г Хабаровск, район Индустриальный, улица Весенняя, д. 1, 3</t>
+          <t>г Хабаровск, ул Алексеевская</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ООО СЗ СК ДОМОСТРОЙ</t>
+          <t>ООО СТРОЙМЕТАЛЛ Л</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ДоМострой</t>
+          <t>СтройМеталл</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>210</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>4 248</t>
+          <t>6 960</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>IV кв. 2021</t>
+          <t>I кв. 2024</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/a18f39f0-2876-458b-94e5-016b8e72e92a</t>
         </is>
       </c>
     </row>
@@ -1696,42 +1836,47 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>42357</t>
+          <t>34616</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>г Хабаровск, улица Героев Пассаров, д. Участок,10</t>
+          <t>г Хабаровск, ул Алексеевская, блок-секция 3 А,3Б</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ООО СЗ ФЖС</t>
+          <t>ООО СТРОЙМЕТАЛЛ Л</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Фонд Жилищного строительства</t>
+          <t>СтройМеталл</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>228</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>7 878</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
           <t>IV кв. 2022</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/308a7c9b-2099-4223-88c8-bd2b795fe87e</t>
         </is>
       </c>
     </row>
@@ -1741,42 +1886,47 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>36755</t>
+          <t>35427</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>г Хабаровск, улица Героев Пассаров, д. 12/2</t>
+          <t>г Хабаровск, ул Заозерная, д. 16-18</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ООО СЗ ФЖС</t>
+          <t>ООО СМС АВТО</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Фонд Жилищного строительства</t>
+          <t>Компания КЕТОМ</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>4 642</t>
+          <t>6 509</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>I кв. 2022</t>
+          <t>IV кв. 2022</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/13d3b235-8cbd-4152-bc88-d2fce332b4e9</t>
         </is>
       </c>
     </row>
@@ -1786,42 +1936,47 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>38743</t>
+          <t>37848</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>г Хабаровск, улица Героев Пассаров, д. 10/2, строение Участок 10</t>
+          <t>г Хабаровск, улица Стрельникова, д. 16/1, блок-секция 1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ООО СЗ ФЖС</t>
+          <t>ООО СЗ ХОЛДИНГ СК ЭВЕРЕСТ</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Фонд Жилищного строительства</t>
+          <t>Эверест</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>39</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>7 017</t>
+          <t>1 568</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
           <t>II кв. 2022</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/1fc78468-fc77-4eed-a4ee-fc9056dde0d3</t>
         </is>
       </c>
     </row>
@@ -1831,42 +1986,47 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>43076</t>
+          <t>37849</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>г Хабаровск, улица Героев Пассаров, д. Уч.10</t>
+          <t>г Хабаровск, улица Стрельникова, д. 16/1, блок-секция 2</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ООО СЗ ФЖС</t>
+          <t>ООО СЗ ХОЛДИНГ СК ЭВЕРЕСТ</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Фонд Жилищного строительства</t>
+          <t>Эверест</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>39</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>10 030</t>
+          <t>1 568</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>II кв. 2023</t>
+          <t>IV кв. 2022</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/69391167-cb02-4b2b-ad46-b57cb32b9dc8</t>
         </is>
       </c>
     </row>
@@ -1876,42 +2036,47 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>38561</t>
+          <t>22215</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>г Хабаровск, улица Героев Пассаров, д. 10/1</t>
+          <t>г Хабаровск, Индустриальный район, улица Юности, д. 13</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>ООО СЗ ФЖС</t>
+          <t>ООО ЭНКА ИНВЕСТ</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Фонд Жилищного строительства</t>
+          <t>ЭНКА</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>110</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>8 319</t>
+          <t>5 021</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>II кв. 2022</t>
+          <t>III кв. 2023</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/f4e16e94-7dd1-476a-87ad-b08d7bc3a341</t>
         </is>
       </c>
     </row>
@@ -1921,42 +2086,47 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>40146</t>
+          <t>22217</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>г Хабаровск, район Железнодорожный, улица Героев Пассаров, д. 10</t>
+          <t>г Хабаровск, Индустриальный район, улица Юности, д. 16</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>ООО СЗ ФЖС</t>
+          <t>ООО ЭНКА ИНВЕСТ</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Фонд Жилищного строительства</t>
+          <t>ЭНКА</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>118</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>7 017</t>
+          <t>4 971</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>II кв. 2022</t>
+          <t>II кв. 2023</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/7cd6e438-03e8-4c4a-8587-30981ec9cdd8</t>
         </is>
       </c>
     </row>
@@ -1966,42 +2136,47 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>40147</t>
+          <t>22216</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>г Хабаровск, улица Героев Пассаров, строение Участок 10</t>
+          <t>г Хабаровск, Индустриальный район, улица Юности, д. 17</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ООО СЗ ФЖС</t>
+          <t>ООО ЭНКА ИНВЕСТ</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Фонд Жилищного строительства</t>
+          <t>ЭНКА</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>110</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>7 017</t>
+          <t>5 021</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>III кв. 2022</t>
+          <t>II кв. 2024</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/191b16fc-275f-424f-a06a-e62ab85b22f5</t>
         </is>
       </c>
     </row>
@@ -2011,42 +2186,47 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>42356</t>
+          <t>22214</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>г Хабаровск, улица Героев Пассаров, д. 10</t>
+          <t>г Хабаровск, Индустриальный район, улица Юности, д. 12</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>ООО СЗ ФЖС</t>
+          <t>ООО ЭНКА ИНВЕСТ</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Фонд Жилищного строительства</t>
+          <t>ЭНКА</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>124</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>8 341</t>
+          <t>4 808</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
           <t>IV кв. 2022</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/b1abb96c-d997-4921-ac6b-b4b62f4dbb2a</t>
         </is>
       </c>
     </row>
@@ -2056,22 +2236,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>31696</t>
+          <t>22218</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>г Хабаровск, ул Заозёрная, д. 36</t>
+          <t>г Хабаровск, Индустриальный район, улица Юности, д. 15</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>ООО КЕТОМ</t>
+          <t>ООО ЭНКА ИНВЕСТ</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Компания КЕТОМ</t>
+          <t>ЭНКА</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2081,17 +2261,22 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>118</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>3 178</t>
+          <t>4 971</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>I кв. 2022</t>
+          <t>I кв. 2023</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/c205cfa5-8242-44d6-9e8d-07524beb4a56</t>
         </is>
       </c>
     </row>
@@ -2101,22 +2286,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>36846</t>
+          <t>36338</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>г Хабаровск, район Центральный, ул Ким Ю Чена, строение 23/1</t>
+          <t>г Хабаровск, район Кировский</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>ООО ИСК РЕАЛ СТРОЙ</t>
+          <t>ООО СЗ ВЗЛЁТ ДЕВЕЛОПМЕНТ</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Реал Строй</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2126,17 +2311,22 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>231</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>4 540</t>
+          <t>11 046</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>IV кв. 2023</t>
+          <t>II кв. 2022</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/b16da6a8-c810-4c3a-9d69-53789050c31b</t>
         </is>
       </c>
     </row>
@@ -2146,42 +2336,47 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>42758</t>
+          <t>42235</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>г Хабаровск, район Индустриальный, ул Павловича, д. 13</t>
+          <t>г Хабаровск, ул Ленина, д. 47</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>ООО СЗ-АЛЬТАМИРА</t>
+          <t>ООО СЗ УЮТ</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>УИП города Хабаровска</t>
+          <t>Архстрой</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>6 711</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>II кв. 2024</t>
+          <t>III кв. 2022</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2191,42 +2386,47 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>42756</t>
+          <t>4680</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>г Хабаровск, район Индустриальный, ул Павловича, д. 13</t>
+          <t>г Хабаровск, Краснофлотский район, пересечение улиц Хорышева-Таймырская, д. 3</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ООО СЗ-АЛЬТАМИРА</t>
+          <t>ООО ТЕХНОСИТИ</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>УИП города Хабаровска</t>
+          <t>Энергожилстрой</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>7 273</t>
+          <t>2 758</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>II кв. 2023</t>
+          <t>IV кв. 2022</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/9864d1c1-27fc-4b5b-835a-e55cf54cd9c3</t>
         </is>
       </c>
     </row>
@@ -2236,42 +2436,47 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>42757</t>
+          <t>4679</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>г Хабаровск, район Индустриальный, ул Павловича, д. 13</t>
+          <t>г Хабаровск, Краснофлотский район, пересечение улиц Хорышева-Таймырская, д. 2</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>ООО СЗ-АЛЬТАМИРА</t>
+          <t>ООО ТЕХНОСИТИ</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>УИП города Хабаровска</t>
+          <t>Энергожилстрой</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2 758</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>II кв. 2023</t>
+          <t>IV кв. 2023</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/5df3a388-4f18-4a4e-931b-89747c9847c3</t>
         </is>
       </c>
     </row>
@@ -2281,42 +2486,47 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>42759</t>
+          <t>4678</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>г Хабаровск, район Индустриальный, ул Павловича, д. 13</t>
+          <t>г Хабаровск, Краснофлотский район, пересечение улиц Хорышева-Таймырская, д. 1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ООО СЗ-АЛЬТАМИРА</t>
+          <t>ООО ТЕХНОСИТИ</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>УИП города Хабаровска</t>
+          <t>Энергожилстрой</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>58</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>6 711</t>
+          <t>2 789</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>I кв. 2025</t>
+          <t>III кв. 2022</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/d7497b36-bdd7-4f48-8d68-b69b27ee2a27</t>
         </is>
       </c>
     </row>
@@ -2326,42 +2536,47 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>41003</t>
+          <t>4681</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>г Хабаровск, район Индустриальный, ул Морозова Павла Леонтьевича, д. 20</t>
+          <t>г Хабаровск, Краснофлотский район, пересечение улиц Хорышева-Таймырская, д. 4</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ООО СЗ ГРАДЪ СЕРВИС</t>
+          <t>ООО ТЕХНОСИТИ</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>УИП города Хабаровска</t>
+          <t>Энергожилстрой</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>18 794</t>
+          <t>2 826</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>II кв. 2024</t>
+          <t>III кв. 2023</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/1708d121-a227-47ed-a81b-41845c37f003</t>
         </is>
       </c>
     </row>
@@ -2371,42 +2586,47 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>37371</t>
+          <t>9256</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>г Хабаровск, район Краснофлотский, ул. Стрельникова, строение 8</t>
+          <t>г Хабаровск, район Краснофлотский, д. №2</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>ООО ИНТЕР</t>
+          <t>ООО ТСМ</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>МОЙ ВЫБОР</t>
+          <t>Терраса ЛОФТ</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>29</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>10 620</t>
+          <t>1 397</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>IV кв. 2023</t>
+          <t>IV кв. 2021</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/87cc5b2b-702e-40b0-ab1d-a8aa4b709ddb</t>
         </is>
       </c>
     </row>
@@ -2416,42 +2636,47 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>37372</t>
+          <t>36339</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>г Хабаровск, район Краснофлотский, ул. Стрельникова, строение 8</t>
+          <t>г Хабаровск, район Кировский, ул Джамбула, д. 3</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>ООО ИНТЕР</t>
+          <t>ООО СЗ ТАЛАН-РЕГИОН-2</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>МОЙ ВЫБОР</t>
+          <t>Талан</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>262</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>15 415</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>IV кв. 2023</t>
+          <t>I кв. 2023</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/63148033-ce18-4af7-b61a-e56738130223</t>
         </is>
       </c>
     </row>
@@ -2461,42 +2686,47 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>40829</t>
+          <t>32629</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>г Хабаровск, улица Совхозная, д. 61</t>
+          <t>город Хабаровск, переулок Гражданский, д. 9</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>ООО СЗ ПЕРСПЕКТИВА</t>
+          <t>ООО ИНВЕСТ-ДВ</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>МОЙ ВЫБОР</t>
+          <t>ИНВЕСТ-ДВ</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>89</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>4 640</t>
+          <t>7 410</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>I кв. 2023</t>
+          <t>II кв. 2022</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/72e17851-3677-46da-b9a9-df318f2dc9d9</t>
         </is>
       </c>
     </row>
@@ -2506,42 +2736,47 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>40830</t>
+          <t>41942</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>г Хабаровск, улица Совхозная, д. 61</t>
+          <t>г Хабаровск, Индустриальный район, улица П.Л.Морозова</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>ООО СЗ ПЕРСПЕКТИВА</t>
+          <t>ООО СЗ СТРОЙКОР ПЛЮС</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>МОЙ ВЫБОР</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>156</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>13 075</t>
+          <t>10 868</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>I кв. 2023</t>
+          <t>IV кв. 2023</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/b9b99e7b-ca8a-441c-80b0-59b0c5e70c16</t>
         </is>
       </c>
     </row>
@@ -2551,42 +2786,47 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>40827</t>
+          <t>42600</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>г Хабаровск, улица Совхозная, д. 61</t>
+          <t>г Хабаровск, район Индустриальный, улица П.Л.Морозова</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>ООО СЗ ПЕРСПЕКТИВА</t>
+          <t>ООО СЗ СТРОЙКОР ПЛЮС</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>МОЙ ВЫБОР</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>156</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>13 536</t>
+          <t>10 868</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>I кв. 2023</t>
+          <t>IV кв. 2023</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/1c4c18b1-ffd1-47ee-a2ed-2c64543f7600</t>
         </is>
       </c>
     </row>
@@ -2596,42 +2836,47 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>40828</t>
+          <t>42601</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>г Хабаровск, улица Совхозная, д. 61</t>
+          <t>г Хабаровск, район Индустриальный, улица П.Л.Морозова</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>ООО СЗ ПЕРСПЕКТИВА</t>
+          <t>ООО СЗ СТРОЙКОР ПЛЮС</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>МОЙ ВЫБОР</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>13 382</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>I кв. 2023</t>
+          <t>IV кв. 2023</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/27924ab4-de8c-465e-bc0b-9736c4742209</t>
         </is>
       </c>
     </row>
@@ -2641,42 +2886,47 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>36338</t>
+          <t>36755</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>г Хабаровск, район Кировский</t>
+          <t>г Хабаровск, улица Героев Пассаров, д. 12/2</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>ООО СЗ ВЗЛЁТ ДЕВЕЛОПМЕНТ</t>
+          <t>ООО СЗ ФЖС</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>МОЙ ВЫБОР</t>
+          <t>Фонд Жилищного строительства</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>11 046</t>
+          <t>4 642</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>II кв. 2022</t>
+          <t>I кв. 2022</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/bbd4156e-1268-4f59-bad5-b9909df653c5</t>
         </is>
       </c>
     </row>
@@ -2686,42 +2936,47 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>33459</t>
+          <t>42357</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>город Хабаровск, улица Бондаря, д. 6, блок-секция 6</t>
+          <t>г Хабаровск, улица Героев Пассаров, д. Участок,10</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>ФГУП ГВСУ № 6</t>
+          <t>ООО СЗ ФЖС</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>МОЙ ВЫБОР</t>
+          <t>Фонд Жилищного строительства</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>14 570</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>I кв. 2023</t>
+          <t>IV кв. 2022</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/e3be1696-3ecd-4e23-862f-c33b520dacc1</t>
         </is>
       </c>
     </row>
@@ -2731,42 +2986,47 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>33457</t>
+          <t>38743</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>город Хабаровск, улица Бондаря, д. 3, блок-секция 2</t>
+          <t>г Хабаровск, улица Героев Пассаров, д. 10/2, строение Участок 10</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>ФГУП ГВСУ № 6</t>
+          <t>ООО СЗ ФЖС</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>МОЙ ВЫБОР</t>
+          <t>Фонд Жилищного строительства</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>3 424</t>
+          <t>7 017</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>I кв. 2023</t>
+          <t>II кв. 2022</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/f12dd2fe-b0d0-4549-8659-2cf55d94d8bb</t>
         </is>
       </c>
     </row>
@@ -2776,22 +3036,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>33458</t>
+          <t>43076</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>город Хабаровск, улица Бондаря, д. 4, блок-секция 4</t>
+          <t>г Хабаровск, улица Героев Пассаров, д. Уч.10</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>ФГУП ГВСУ № 6</t>
+          <t>ООО СЗ ФЖС</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>МОЙ ВЫБОР</t>
+          <t>Фонд Жилищного строительства</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2801,17 +3061,22 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>190</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>9 733</t>
+          <t>10 030</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>I кв. 2023</t>
+          <t>II кв. 2023</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/411dab77-7b5d-4e4f-8460-e45aea99f12b</t>
         </is>
       </c>
     </row>
@@ -2821,22 +3086,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>33456</t>
+          <t>38561</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>г Хабаровск, улица Бондаря, д. 1, блок-секция 3</t>
+          <t>г Хабаровск, улица Героев Пассаров, д. 10/1</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>ФГУП ГВСУ № 6</t>
+          <t>ООО СЗ ФЖС</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>МОЙ ВЫБОР</t>
+          <t>Фонд Жилищного строительства</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2846,17 +3111,22 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>179</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>10 216</t>
+          <t>8 319</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>I кв. 2023</t>
+          <t>II кв. 2022</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/731b3b6d-fb75-4e72-adb3-6a5431de19d6</t>
         </is>
       </c>
     </row>
@@ -2866,42 +3136,47 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>32629</t>
+          <t>40146</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>город Хабаровск, переулок Гражданский, д. 9</t>
+          <t>г Хабаровск, район Железнодорожный, улица Героев Пассаров, д. 10</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>ООО ИНВЕСТ-ДВ</t>
+          <t>ООО СЗ ФЖС</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ИНВЕСТ-ДВ</t>
+          <t>Фонд Жилищного строительства</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>7 410</t>
+          <t>7 017</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
           <t>II кв. 2022</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/349d160b-61b8-4a35-a28f-bca66ef2ad78</t>
         </is>
       </c>
     </row>
@@ -2911,42 +3186,47 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>34613</t>
+          <t>40147</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>г Хабаровск, Алексеевская</t>
+          <t>г Хабаровск, улица Героев Пассаров, строение Участок 10</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>ООО СТРОЙМЕТАЛЛ Л</t>
+          <t>ООО СЗ ФЖС</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>СтройМеталл</t>
+          <t>Фонд Жилищного строительства</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>4 981</t>
+          <t>7 017</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>IV кв. 2023</t>
+          <t>III кв. 2022</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/135c6e38-b625-404f-80bc-e6e6c803e4f7</t>
         </is>
       </c>
     </row>
@@ -2956,42 +3236,47 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>34612</t>
+          <t>42356</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>г Хабаровск, ул Алексеевская</t>
+          <t>г Хабаровск, улица Героев Пассаров, д. 10</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>ООО СТРОЙМЕТАЛЛ Л</t>
+          <t>ООО СЗ ФЖС</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>СтройМеталл</t>
+          <t>Фонд Жилищного строительства</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>180</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>6 960</t>
+          <t>8 341</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>I кв. 2024</t>
+          <t>IV кв. 2022</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/b149d38e-b29e-4584-b19e-0854b98a0356</t>
         </is>
       </c>
     </row>
@@ -3001,42 +3286,47 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>34616</t>
+          <t>42756</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>г Хабаровск, ул Алексеевская, блок-секция 3 А,3Б</t>
+          <t>г Хабаровск, район Индустриальный, ул Павловича, д. 13</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>ООО СТРОЙМЕТАЛЛ Л</t>
+          <t>ООО СЗ-АЛЬТАМИРА</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>СтройМеталл</t>
+          <t>УИП города Хабаровска</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>101</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>7 878</t>
+          <t>7 273</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>IV кв. 2022</t>
+          <t>II кв. 2023</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/ab5e59cf-0d9d-405d-9d0f-925b9a98f19b</t>
         </is>
       </c>
     </row>
@@ -3046,42 +3336,47 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>41942</t>
+          <t>42758</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>г Хабаровск, Индустриальный район, улица П.Л.Морозова</t>
+          <t>г Хабаровск, район Индустриальный, ул Павловича, д. 13</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>ООО СЗ СТРОЙКОР ПЛЮС</t>
+          <t>ООО СЗ-АЛЬТАМИРА</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>СтройМеталл</t>
+          <t>УИП города Хабаровска</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>93</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>10 868</t>
+          <t>6 711</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>IV кв. 2023</t>
+          <t>II кв. 2024</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/63c4991b-0098-4bc0-b097-0187c1741841</t>
         </is>
       </c>
     </row>
@@ -3091,42 +3386,47 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>42600</t>
+          <t>42759</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>г Хабаровск, район Индустриальный, улица П.Л.Морозова</t>
+          <t>г Хабаровск, район Индустриальный, ул Павловича, д. 13</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>ООО СЗ СТРОЙКОР ПЛЮС</t>
+          <t>ООО СЗ-АЛЬТАМИРА</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>СтройМеталл</t>
+          <t>УИП города Хабаровска</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>93</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>10 868</t>
+          <t>6 711</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>IV кв. 2023</t>
+          <t>I кв. 2025</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/f022b115-eaf8-4c4b-b747-d1335668071b</t>
         </is>
       </c>
     </row>
@@ -3136,27 +3436,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>42601</t>
+          <t>42757</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>г Хабаровск, район Индустриальный, улица П.Л.Морозова</t>
+          <t>г Хабаровск, район Индустриальный, ул Павловича, д. 13</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>ООО СЗ СТРОЙКОР ПЛЮС</t>
+          <t>ООО СЗ-АЛЬТАМИРА</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>СтройМеталл</t>
+          <t>УИП города Хабаровска</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3171,7 +3471,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>IV кв. 2023</t>
+          <t>II кв. 2023</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/4033ba0d-1037-4101-a2e0-950ffbc851c7</t>
         </is>
       </c>
     </row>
@@ -3181,42 +3486,47 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>4418</t>
+          <t>42293</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>г Хабаровск, район Центральный, улица Ленинградская, д. 27, строение Гостиница</t>
+          <t>г Хабаровск, район Железнодорожный, ул Совхозная</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>ООО ЛИДЕР</t>
+          <t>ООО СЗ-УИП</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>БАСК</t>
+          <t>УИП города Хабаровска</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>89</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3 854</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>III кв. 2022</t>
+          <t>IV кв. 2022</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/9529b8ff-4c20-4343-a036-d80b82cdc420</t>
         </is>
       </c>
     </row>
@@ -3226,42 +3536,47 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>34999</t>
+          <t>40338</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>г Хабаровск, Лазо, д. Четырехквартирный дом по ГП №6 (1 этап строительства)</t>
+          <t>г Хабаровск, район Железнодорожный, ул Совхозная</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>ООО СЗ ДА ДЕВЕЛОПМЕНТ</t>
+          <t>ООО СЗ-УИП</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Да! Девелопмент</t>
+          <t>УИП города Хабаровска</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>71</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>3 904</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>IV кв. 2022</t>
+          <t>III кв. 2022</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/02d788cc-10f2-4d2a-ae69-e6f56cab44fd</t>
         </is>
       </c>
     </row>
@@ -3271,42 +3586,47 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>34997</t>
+          <t>40337</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>г Хабаровск, Лазо, д. Четырехквартирный дом по ГП №4 (1 этап строительства)</t>
+          <t>г Хабаровск, район Железнодорожный, ул Совхозная</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>ООО СЗ ДА ДЕВЕЛОПМЕНТ</t>
+          <t>ООО СЗ-УИП</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Да! Девелопмент</t>
+          <t>УИП города Хабаровска</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>154</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>7 247</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
           <t>IV кв. 2022</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/c000792c-51f3-4551-8bc3-72d5ae89757d</t>
         </is>
       </c>
     </row>
@@ -3316,42 +3636,47 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>34994</t>
+          <t>35574</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>г Хабаровск, Лазо, д. Четырехквартирный дом по ГП №1 (1 этап строительства)</t>
+          <t>г Хабаровск, район Краснофлотский, ш Воронежское, д. 5</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>ООО СЗ ДА ДЕВЕЛОПМЕНТ</t>
+          <t>ООО СЗ ЖК СПОРТИВНЫЙ</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Да! Девелопмент</t>
+          <t>Ладный дом</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>130</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>5 638</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
           <t>IV кв. 2022</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/dc9c5f54-7dae-4cf3-91ae-01be3baa3928</t>
         </is>
       </c>
     </row>
@@ -3361,42 +3686,47 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>34996</t>
+          <t>40829</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>г Хабаровск, Лазо, д. Четырехквартирный дом по ГП №3 (1 этап строительства)</t>
+          <t>г Хабаровск, улица Совхозная, д. 61</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>ООО СЗ ДА ДЕВЕЛОПМЕНТ</t>
+          <t>ООО СЗ ПЕРСПЕКТИВА</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Да! Девелопмент</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>104</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>4 640</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>IV кв. 2022</t>
+          <t>I кв. 2023</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/8cc55f4d-eb08-4131-b2b7-2a306213396e</t>
         </is>
       </c>
     </row>
@@ -3406,42 +3736,47 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>34998</t>
+          <t>40830</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>г Хабаровск, Лазо, д. Четырехквартирный дом по ГП №5 (1 этап строительства)</t>
+          <t>г Хабаровск, улица Совхозная, д. 61</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>ООО СЗ ДА ДЕВЕЛОПМЕНТ</t>
+          <t>ООО СЗ ПЕРСПЕКТИВА</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Да! Девелопмент</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>275</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>13 075</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>IV кв. 2022</t>
+          <t>I кв. 2023</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/c76fdec0-d312-48e9-a815-b986a912d20a</t>
         </is>
       </c>
     </row>
@@ -3451,42 +3786,47 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>34995</t>
+          <t>40827</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>г Хабаровск, Лазо, д. Пятиквартирный дом по ГП №2 (1 этап строительства)</t>
+          <t>г Хабаровск, улица Совхозная, д. 61</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>ООО СЗ ДА ДЕВЕЛОПМЕНТ</t>
+          <t>ООО СЗ ПЕРСПЕКТИВА</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Да! Девелопмент</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>273</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>906</t>
+          <t>13 536</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>IV кв. 2022</t>
+          <t>I кв. 2023</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/355191ed-b278-4863-92af-bd9081da05d5</t>
         </is>
       </c>
     </row>
@@ -3496,42 +3836,47 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>35001</t>
+          <t>40828</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>г Хабаровск, Лазо, д. Четырехквартирный дом по ГП №8 (2 этап строительства)</t>
+          <t>г Хабаровск, улица Совхозная, д. 61</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>ООО СЗ ДА ДЕВЕЛОПМЕНТ</t>
+          <t>ООО СЗ ПЕРСПЕКТИВА</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Да! Девелопмент</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>245</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>13 382</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
           <t>I кв. 2023</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/2f537df5-1eba-4663-a057-f80e2f25e402</t>
         </is>
       </c>
     </row>
@@ -3541,42 +3886,47 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>35000</t>
+          <t>40339</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>г Хабаровск, Лазо, д. Контрольно-пропускной пункт со встроенными административными помещениями по ГП № 7</t>
+          <t>г Хабаровск, район Кировский, ул Яшина</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>ООО СЗ ДА ДЕВЕЛОПМЕНТ</t>
+          <t>ООО СЗ-КОНСТРУКТОР</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Да! Девелопмент</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>204</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>8 798</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>IV кв. 2022</t>
+          <t>IV кв. 2023</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/3b8956ca-394a-4b30-8eba-ae97deadc091</t>
         </is>
       </c>
     </row>
@@ -3586,42 +3936,47 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>35005</t>
+          <t>5360</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>г Хабаровск, Лазо, д. Четырехквартирный дом по ГП №12 (2 этап строительства)</t>
+          <t>г Хабаровск, ул Совхозная, д. 35/1, блок-секция Ш2- 3 шт; У1 – 1 шт</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>ООО СЗ ДА ДЕВЕЛОПМЕНТ</t>
+          <t>ООО ФЖС</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Да! Девелопмент</t>
+          <t>Фонд Жилищного строительства</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>136</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>6 492</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>I кв. 2023</t>
+          <t>II кв. 2022</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/60ee0c0f-1132-487f-a413-09a0b1145a04</t>
         </is>
       </c>
     </row>
@@ -3631,42 +3986,47 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>35007</t>
+          <t>7593</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>г Хабаровск, Лазо, д. Четырехквартирный дом по ГП №14 (2 этап строительства)</t>
+          <t>г Хабаровск, район Индустриальный, улица Весенняя, д. 1, 3</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>ООО СЗ ДА ДЕВЕЛОПМЕНТ</t>
+          <t>ООО СЗ СК ДОМОСТРОЙ</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Да! Девелопмент</t>
+          <t>ДоМострой</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>756</t>
+          <t>4 248</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>I кв. 2023</t>
+          <t>IV кв. 2021</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/ebfaac68-cd6f-4db5-8a9b-a902baa17a65</t>
         </is>
       </c>
     </row>
@@ -3676,42 +4036,47 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>37848</t>
+          <t>33459</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>г Хабаровск, улица Стрельникова, д. 16/1, блок-секция 1</t>
+          <t>город Хабаровск, улица Бондаря, д. 6, блок-секция 6</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>ООО СЗ ХОЛДИНГ СК ЭВЕРЕСТ</t>
+          <t>ФГУП ГВСУ № 6</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Эверест</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>1 568</t>
+          <t>14 570</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>II кв. 2022</t>
+          <t>I кв. 2023</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/1f23a3ef-c390-49b2-a02f-20dc5452c56a</t>
         </is>
       </c>
     </row>
@@ -3721,42 +4086,47 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>37849</t>
+          <t>33457</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>г Хабаровск, улица Стрельникова, д. 16/1, блок-секция 2</t>
+          <t>город Хабаровск, улица Бондаря, д. 3, блок-секция 2</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>ООО СЗ ХОЛДИНГ СК ЭВЕРЕСТ</t>
+          <t>ФГУП ГВСУ № 6</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Эверест</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>56</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>1 568</t>
+          <t>3 424</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>IV кв. 2022</t>
+          <t>I кв. 2023</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/5edfb1ad-9500-429d-8043-f3a50d0585d3</t>
         </is>
       </c>
     </row>
@@ -3766,42 +4136,47 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>42293</t>
+          <t>33458</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>г Хабаровск, район Железнодорожный, ул Совхозная</t>
+          <t>город Хабаровск, улица Бондаря, д. 4, блок-секция 4</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>ООО СЗ-УИП</t>
+          <t>ФГУП ГВСУ № 6</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>УИП города Хабаровска</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>160</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>3 854</t>
+          <t>9 733</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>IV кв. 2022</t>
+          <t>I кв. 2023</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/a0a40851-a83c-414c-8e40-906e7a73b6ab</t>
         </is>
       </c>
     </row>
@@ -3811,42 +4186,47 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>40338</t>
+          <t>33456</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>г Хабаровск, район Железнодорожный, ул Совхозная</t>
+          <t>г Хабаровск, улица Бондаря, д. 1, блок-секция 3</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>ООО СЗ-УИП</t>
+          <t>ФГУП ГВСУ № 6</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>УИП города Хабаровска</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>278</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>3 904</t>
+          <t>10 216</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>III кв. 2022</t>
+          <t>I кв. 2023</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/65f0fe31-2eed-4cf1-b0c4-3bb73761db55</t>
         </is>
       </c>
     </row>
@@ -3856,42 +4236,47 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>40337</t>
+          <t>41003</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>г Хабаровск, район Железнодорожный, ул Совхозная</t>
+          <t>г Хабаровск, район Индустриальный, ул Морозова Павла Леонтьевича, д. 20</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>ООО СЗ-УИП</t>
+          <t>ООО СЗ ГРАДЪ СЕРВИС</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>УИП города Хабаровска</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>24</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>248</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>7 247</t>
+          <t>18 794</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>IV кв. 2022</t>
+          <t>II кв. 2024</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/316066c4-c80a-40a7-9e2c-e4b62bda4c34</t>
         </is>
       </c>
     </row>
@@ -3901,42 +4286,47 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>4783</t>
+          <t>31696</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>г Хабаровск, улица Карла Маркса, строение 2</t>
+          <t>г Хабаровск, ул Заозёрная, д. 36</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>ООО ИКАС</t>
+          <t>ООО КЕТОМ</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>СтройЭкспертиза</t>
+          <t>Компания КЕТОМ</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>38</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3 178</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>II кв. 2023</t>
+          <t>I кв. 2022</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/f79f6b96-19e7-4c30-b974-8a4721e51673</t>
         </is>
       </c>
     </row>
@@ -3946,7 +4336,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>4782</t>
+          <t>4783</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3982,6 +4372,11 @@
       <c r="I79" t="inlineStr">
         <is>
           <t>II кв. 2023</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/ea1fbc14-9368-4509-8f8b-c0c62e4c2765</t>
         </is>
       </c>
     </row>
@@ -3991,42 +4386,47 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>4692</t>
+          <t>4782</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>г Хабаровск, район Индустриальный, ул Панфиловцев, д. 1, блок-секция 1</t>
+          <t>г Хабаровск, улица Карла Маркса, строение 2</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>ООО ЗАСТРОЙЩИК-ДВ</t>
+          <t>ООО ИКАС</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Застройщик-ДВ</t>
+          <t>СтройЭкспертиза</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>9 812</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>III кв. 2022</t>
+          <t>II кв. 2023</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/cf8dd970-d7ce-4f71-afee-98c1b3cb9e49</t>
         </is>
       </c>
     </row>
@@ -4036,42 +4436,47 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>4694</t>
+          <t>3333</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>г Хабаровск, ул Панфиловцев, д. 3, блок-секция 3</t>
+          <t>г Хабаровск, Центральный район, ул Ленина, д. 12,14</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>ООО ЗАСТРОЙЩИК-ДВ</t>
+          <t>ООО К-РИШУВИЛ</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Застройщик-ДВ</t>
+          <t>Керенг</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>279</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>1 098</t>
+          <t>20 690</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>III кв. 2022</t>
+          <t>IV кв. 2024</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/985d8779-142a-488d-842e-ee4a8eb4e6e4</t>
         </is>
       </c>
     </row>
@@ -4081,42 +4486,47 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>4693</t>
+          <t>37371</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>г Хабаровск, ул Панфиловцев, д. 2, блок-секция 2</t>
+          <t>г Хабаровск, район Краснофлотский, ул. Стрельникова, строение 8</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>ООО ЗАСТРОЙЩИК-ДВ</t>
+          <t>ООО ИНТЕР</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Застройщик-ДВ</t>
+          <t>МОЙ ВЫБОР</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>215</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>3 946</t>
+          <t>10 620</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>III кв. 2022</t>
+          <t>IV кв. 2023</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/c0838b17-9d65-4caa-a068-9c635ec92f85</t>
         </is>
       </c>
     </row>
@@ -4126,27 +4536,27 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>4695</t>
+          <t>37372</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>г Хабаровск, район Индустриальный, ул Панфиловцев, строение 4, блок-секция Подземная автостоянка</t>
+          <t>г Хабаровск, район Краснофлотский, ул. Стрельникова, строение 8</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>ООО ЗАСТРОЙЩИК-ДВ</t>
+          <t>ООО ИНТЕР</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Застройщик-ДВ</t>
+          <t>МОЙ ВЫБОР</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -4161,7 +4571,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>III кв. 2022</t>
+          <t>IV кв. 2023</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/3bcc97a7-f6ce-43ca-8cb1-a622ec91b3fb</t>
         </is>
       </c>
     </row>
@@ -4207,6 +4622,11 @@
       <c r="I84" t="inlineStr">
         <is>
           <t>II кв. 2023</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>https://xn--80az8a.xn--d1aqf.xn--p1ai/api/ext/file/bf8f6d0b-1650-490f-92b0-767da4de477a</t>
         </is>
       </c>
     </row>
